--- a/Stocks Info.xlsx
+++ b/Stocks Info.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$J$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$J$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="166">
   <si>
     <t>股票编号</t>
   </si>
@@ -692,17 +692,6 @@
     </r>
   </si>
   <si>
-    <t>中航动力</t>
-  </si>
-  <si>
-    <t>600893</t>
-  </si>
-  <si>
-    <t>国防军工
-高端装备
-央企国资改革</t>
-  </si>
-  <si>
     <t>中航电子</t>
   </si>
   <si>
@@ -1096,6 +1085,9 @@
   <si>
     <t>西安航空动力
 中国南方航空</t>
+  </si>
+  <si>
+    <t>买入单价</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1620,7 +1612,7 @@
     <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1640,13 +1632,13 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>97</v>
@@ -1664,27 +1656,30 @@
         <v>96</v>
       </c>
       <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" t="s">
         <v>124</v>
       </c>
-      <c r="P1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="60">
+    </row>
+    <row r="2" spans="1:19" ht="60">
       <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
       </c>
       <c r="D2" s="2">
         <v>5178</v>
@@ -1700,25 +1695,30 @@
         <v>0.4904789494013132</v>
       </c>
       <c r="I2" s="2">
-        <v>3112.35</v>
+        <v>3113.22</v>
       </c>
       <c r="J2" s="27">
         <f>(I2-F2)/(D2-F2)</f>
-        <v>0.18665590424065825</v>
+        <v>0.1869984643855572</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P2">
-        <f>SUM(P3:P43)</f>
-        <v>18</v>
+        <f>SUM(P3:P42)</f>
+        <v>9</v>
       </c>
       <c r="Q2" s="2">
-        <f>SUM(Q3:Q43)</f>
-        <v>10157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="60">
+        <f>SUM(Q3:Q42)</f>
+        <v>7137</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <f>SUM(S3:S42)</f>
+        <v>7150.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="60">
       <c r="A3" s="6">
         <v>601398</v>
       </c>
@@ -1738,18 +1738,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" s="5">
         <f>(D3-F3)/D3</f>
         <v>0.32659932659932667</v>
       </c>
       <c r="I3" s="2">
-        <v>4.42</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J3" s="27">
         <f>(I3-F3)/(D3-F3)</f>
-        <v>0.21649484536082467</v>
+        <v>0.22680412371134037</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1768,14 +1768,15 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <f>I3 * P3 * 100</f>
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="45">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="45">
       <c r="A4" s="11">
         <v>601288</v>
       </c>
@@ -1795,18 +1796,18 @@
         <v>3.07</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H43" si="0">(D4-F4)/D4</f>
+        <f t="shared" ref="H4:H42" si="0">(D4-F4)/D4</f>
         <v>6.6869300911854168E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="J4" s="28">
-        <f t="shared" ref="J4:J42" si="1">(I4-F4)/(D4-F4)</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" ref="J4:J41" si="1">(I4-F4)/(D4-F4)</f>
+        <v>0.40909090909091012</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1818,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N43" si="2">(D4-F4) *100/(D4 *D4)</f>
+        <f t="shared" ref="N4:N42" si="2">(D4-F4) *100/(D4 *D4)</f>
         <v>2.032501547472771</v>
       </c>
       <c r="P4">
@@ -1828,8 +1829,9 @@
         <f t="shared" ref="Q4:Q13" si="3">I4 * P4 * 100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="45">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="45">
       <c r="A5" s="11">
         <v>600036</v>
       </c>
@@ -1849,18 +1851,18 @@
         <v>17.48</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>17.809999999999999</v>
+        <v>17.88</v>
       </c>
       <c r="J5" s="27">
         <f t="shared" si="1"/>
-        <v>0.21710526315789366</v>
+        <v>0.26315789473684126</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1882,8 +1884,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="45">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="45">
       <c r="A6" s="11">
         <v>601328</v>
       </c>
@@ -1903,18 +1906,18 @@
         <v>5.48</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>9.1210613598673274E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>5.63</v>
-      </c>
-      <c r="J6" s="27">
+        <v>5.65</v>
+      </c>
+      <c r="J6" s="28">
         <f t="shared" si="1"/>
-        <v>0.27272727272727182</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1936,8 +1939,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="45">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="45">
       <c r="A7" s="17">
         <v>601939</v>
       </c>
@@ -1957,18 +1961,18 @@
         <v>5.12</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>7.5812274368231028E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>5.23</v>
-      </c>
-      <c r="J7" s="27">
+        <v>5.28</v>
+      </c>
+      <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>0.2619047619047627</v>
+        <v>0.38095238095238138</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1983,18 +1987,16 @@
         <f t="shared" si="2"/>
         <v>1.3684526059247479</v>
       </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
       <c r="P7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="3"/>
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="60">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="60">
       <c r="A8" s="6">
         <v>601688</v>
       </c>
@@ -2014,18 +2016,18 @@
         <v>17.649999999999999</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>0.21029082774049229</v>
       </c>
       <c r="I8" s="2">
-        <v>19.55</v>
+        <v>20.34</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="1"/>
-        <v>0.40425531914893637</v>
+        <v>0.57234042553191478</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -2047,8 +2049,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="45">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="45">
       <c r="A9" s="11">
         <v>601211</v>
       </c>
@@ -2068,18 +2071,18 @@
         <v>17.39</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>0.12525150905432589</v>
       </c>
       <c r="I9" s="2">
-        <v>17.829999999999998</v>
+        <v>17.96</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="1"/>
-        <v>0.17670682730923615</v>
+        <v>0.22891566265060267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -2095,14 +2098,21 @@
         <v>0.63003777190304766</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="45">
+        <v>1796</v>
+      </c>
+      <c r="R9" s="2">
+        <v>18.02</v>
+      </c>
+      <c r="S9" s="2">
+        <f>R9 * P9 * 100</f>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45">
       <c r="A10" s="11">
         <v>600999</v>
       </c>
@@ -2122,18 +2132,18 @@
         <v>16.809999999999999</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>0.12310902451747537</v>
       </c>
       <c r="I10" s="2">
-        <v>17.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>0.4618644067796604</v>
+        <v>0.63135593220338992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -2155,8 +2165,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="45">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="45">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -2176,18 +2187,18 @@
         <v>16.02</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>0.15417106652587126</v>
       </c>
       <c r="I11" s="2">
-        <v>16.989999999999998</v>
+        <v>17.07</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="1"/>
-        <v>0.33219178082191725</v>
+        <v>0.35958904109589046</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -2209,8 +2220,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="45">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="45">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -2230,18 +2242,18 @@
         <v>15.9</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>0.15064102564102558</v>
       </c>
       <c r="I12" s="2">
-        <v>16.760000000000002</v>
+        <v>16.91</v>
       </c>
       <c r="J12" s="28">
         <f>(I12-F12)/(D12-F12)</f>
-        <v>0.30496453900709281</v>
+        <v>0.35815602836879445</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2263,8 +2275,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="45">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="45">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2284,18 +2297,18 @@
         <v>22.55</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>0.18533236994219648</v>
       </c>
       <c r="I13" s="2">
-        <v>24.77</v>
+        <v>24.64</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="1"/>
-        <v>0.43274853801169577</v>
+        <v>0.40740740740740744</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2317,8 +2330,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="60">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="60">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2338,18 +2352,18 @@
         <v>9.06</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>0.16188714153561518</v>
       </c>
       <c r="I14" s="2">
-        <v>9.14</v>
+        <v>9.17</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="1"/>
-        <v>4.5714285714285756E-2</v>
+        <v>6.2857142857142528E-2</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2372,10 +2386,17 @@
       </c>
       <c r="Q14" s="2">
         <f>I14 * P14 * 100</f>
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="60">
+        <v>2751</v>
+      </c>
+      <c r="R14" s="2">
+        <v>9.1769999999999996</v>
+      </c>
+      <c r="S14" s="2">
+        <f>R14 * P14 * 100</f>
+        <v>2753.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="60">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
@@ -2395,18 +2416,18 @@
         <v>25.56</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>0.12913117546848391</v>
       </c>
       <c r="I15" s="2">
-        <v>28.16</v>
+        <v>27.52</v>
       </c>
       <c r="J15" s="28">
         <f t="shared" si="1"/>
-        <v>0.68601583113456455</v>
+        <v>0.51715039577836397</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2428,8 +2449,9 @@
         <f t="shared" ref="Q15:Q28" si="4">I15 * P15 * 100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="30">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
@@ -2449,18 +2471,18 @@
         <v>15.48</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>0.11643835616438351</v>
       </c>
       <c r="I16" s="2">
-        <v>16.96</v>
-      </c>
-      <c r="J16" s="29">
+        <v>16.88</v>
+      </c>
+      <c r="J16" s="28">
         <f t="shared" si="1"/>
-        <v>0.7254901960784319</v>
+        <v>0.68627450980392113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2482,8 +2504,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="45">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="45">
       <c r="A17" s="17" t="s">
         <v>35</v>
       </c>
@@ -2503,18 +2526,18 @@
         <v>6.59</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>0.15077319587628865</v>
       </c>
       <c r="I17" s="2">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
       <c r="J17" s="28">
         <f t="shared" si="1"/>
-        <v>0.3760683760683764</v>
+        <v>0.35897435897435892</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2536,8 +2559,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="75">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="75">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2557,18 +2581,18 @@
         <v>23.58</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>0.12634309003334571</v>
       </c>
       <c r="I18" s="2">
-        <v>24.84</v>
+        <v>24.83</v>
       </c>
       <c r="J18" s="28">
         <f t="shared" si="1"/>
-        <v>0.36950146627566027</v>
+        <v>0.36656891495601174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2590,8 +2614,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="75">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="75">
       <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
@@ -2611,18 +2636,18 @@
         <v>13.69</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>0.20406976744186045</v>
       </c>
       <c r="I19" s="2">
-        <v>14.16</v>
+        <v>14.17</v>
       </c>
       <c r="J19" s="27">
         <f t="shared" si="1"/>
-        <v>0.1339031339031341</v>
+        <v>0.13675213675213688</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2644,8 +2669,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="60">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="60">
       <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
@@ -2665,18 +2691,18 @@
         <v>14.48</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
         <v>7.5941289087428171E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>15.39</v>
+        <v>15.55</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>0.76470588235294157</v>
+        <v>0.8991596638655468</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2698,8 +2724,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="75">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="75">
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2724,11 +2751,11 @@
         <v>6.8994889267461709E-2</v>
       </c>
       <c r="I21" s="2">
-        <v>22.37</v>
+        <v>22.39</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="1"/>
-        <v>0.3148148148148156</v>
+        <v>0.327160493827161</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2750,8 +2777,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="45">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="45">
       <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
@@ -2771,18 +2799,18 @@
         <v>19.95</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
         <v>8.3601286173633452E-2</v>
       </c>
       <c r="I22" s="2">
-        <v>20.93</v>
+        <v>21.3</v>
       </c>
       <c r="J22" s="28">
         <f t="shared" si="1"/>
-        <v>0.53846153846153866</v>
+        <v>0.74175824175824245</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2804,8 +2832,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="60">
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="60">
       <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
@@ -2825,18 +2854,18 @@
         <v>55.01</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
         <v>0.17871006270528525</v>
       </c>
       <c r="I23" s="2">
-        <v>58.7</v>
+        <v>59.66</v>
       </c>
       <c r="J23" s="28">
         <f t="shared" si="1"/>
-        <v>0.30827067669172958</v>
+        <v>0.38847117794486186</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2858,8 +2887,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="90">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="90">
       <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
@@ -2879,18 +2909,18 @@
         <v>28.1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
         <v>0.10736975857687417</v>
       </c>
       <c r="I24" s="2">
-        <v>30.4</v>
+        <v>30.14</v>
       </c>
       <c r="J24" s="28">
         <f t="shared" si="1"/>
-        <v>0.68047337278106446</v>
+        <v>0.60355029585798814</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2912,8 +2942,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="45">
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="45">
       <c r="A25" s="11" t="s">
         <v>53</v>
       </c>
@@ -2933,18 +2964,18 @@
         <v>21.25</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
         <v>0.19262917933130699</v>
       </c>
       <c r="I25" s="2">
-        <v>22.87</v>
-      </c>
-      <c r="J25" s="28">
+        <v>22.7</v>
+      </c>
+      <c r="J25" s="27">
         <f t="shared" si="1"/>
-        <v>0.3195266272189351</v>
+        <v>0.28599605522682431</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2966,8 +2997,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="45">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="45">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2987,18 +3019,18 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
         <v>0.27370304114490168</v>
       </c>
       <c r="I26" s="2">
-        <v>5.18</v>
+        <v>5.15</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="1"/>
-        <v>0.73202614379084963</v>
+        <v>0.71241830065359513</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3020,8 +3052,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="60">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="60">
       <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
@@ -3041,18 +3074,18 @@
         <v>8.94</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
         <v>0.1006036217303823</v>
       </c>
       <c r="I27" s="2">
-        <v>9.56</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="J27" s="28">
         <f t="shared" si="1"/>
-        <v>0.62000000000000099</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3074,8 +3107,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="45">
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="45">
       <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
@@ -3095,7 +3129,7 @@
         <v>7.22</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
@@ -3128,8 +3162,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="60">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="60">
       <c r="A29" s="11" t="s">
         <v>60</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
@@ -3185,8 +3220,15 @@
         <f>I29 * P29 * 100</f>
         <v>2590</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="60">
+      <c r="R29" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="S29" s="2">
+        <f>R29 * P29 * 100</f>
+        <v>2595.0000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="60">
       <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
@@ -3206,7 +3248,7 @@
         <v>6.96</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
@@ -3239,8 +3281,9 @@
         <f>I30 * P30 * 100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="45">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="45">
       <c r="A31" s="17" t="s">
         <v>66</v>
       </c>
@@ -3260,18 +3303,18 @@
         <v>4.96</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
         <v>9.4890510948905188E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>5.17</v>
+        <v>5.27</v>
       </c>
       <c r="J31" s="28">
         <f t="shared" si="1"/>
-        <v>0.40384615384615341</v>
+        <v>0.59615384615384492</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3293,8 +3336,9 @@
         <f>I31 * P31 * 100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="45">
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="45">
       <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
@@ -3314,18 +3358,18 @@
         <v>7.18</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
         <v>4.7745358090185722E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>7.37</v>
+        <v>7.38</v>
       </c>
       <c r="J32" s="28">
         <f t="shared" si="1"/>
-        <v>0.52777777777777835</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3344,11 +3388,12 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" ref="Q32:Q43" si="5">I32 * P32 * 100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="45">
+        <f t="shared" ref="Q32:Q42" si="5">I32 * P32 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="45">
       <c r="A33" s="11" t="s">
         <v>82</v>
       </c>
@@ -3368,18 +3413,18 @@
         <v>12.68</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
         <v>0.25761124121779855</v>
       </c>
       <c r="I33" s="2">
-        <v>16.5</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="1"/>
-        <v>0.8681818181818185</v>
+        <v>0.87045454545454615</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3401,8 +3446,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="60">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="60">
       <c r="A34" s="11" t="s">
         <v>86</v>
       </c>
@@ -3422,18 +3468,18 @@
         <v>4.76</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
         <v>7.3929961089494151E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J34" s="28">
         <f t="shared" si="1"/>
-        <v>0.57894736842105443</v>
+        <v>0.65789473684210542</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3455,8 +3501,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="45">
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="45">
       <c r="A35" s="11" t="s">
         <v>88</v>
       </c>
@@ -3476,18 +3523,18 @@
         <v>7.01</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
         <v>0.10814249363867691</v>
       </c>
       <c r="I35" s="2">
-        <v>7.16</v>
+        <v>7.18</v>
       </c>
       <c r="J35" s="27">
         <f t="shared" si="1"/>
-        <v>0.17647058823529443</v>
+        <v>0.19999999999999979</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3509,8 +3556,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="45">
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="45">
       <c r="A36" s="11" t="s">
         <v>92</v>
       </c>
@@ -3530,18 +3578,18 @@
         <v>2.95</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
         <v>4.8387096774193519E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="J36" s="28">
         <f t="shared" si="1"/>
-        <v>0.53333333333333122</v>
+        <v>0.4666666666666659</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3563,8 +3611,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="45">
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="45">
       <c r="A37" s="17" t="s">
         <v>100</v>
       </c>
@@ -3584,18 +3633,18 @@
         <v>6.58</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
         <v>8.9903181189488285E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="J37" s="28">
         <f t="shared" si="1"/>
-        <v>0.4307692307692309</v>
+        <v>0.39999999999999947</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3617,50 +3666,53 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="45">
-      <c r="A38" s="6" t="s">
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="60">
+      <c r="A38" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="9">
-        <v>40.53</v>
-      </c>
-      <c r="E38" s="10">
-        <v>42565</v>
-      </c>
-      <c r="F38" s="9">
-        <v>33.82</v>
-      </c>
-      <c r="G38" s="23"/>
+      <c r="C38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="14">
+        <v>23.16</v>
+      </c>
+      <c r="E38" s="15">
+        <v>42556</v>
+      </c>
+      <c r="F38" s="14">
+        <v>18.46</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="H38" s="5">
         <f t="shared" si="0"/>
-        <v>0.16555637799161116</v>
+        <v>0.20293609671848012</v>
       </c>
       <c r="I38" s="2">
-        <v>35</v>
-      </c>
-      <c r="J38" s="26">
+        <v>19.48</v>
+      </c>
+      <c r="J38" s="27">
         <f t="shared" si="1"/>
-        <v>0.17585692995529054</v>
+        <v>0.21702127659574463</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
-        <v>0.40847860348287979</v>
+        <v>0.87623530534749627</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3669,39 +3721,40 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="60">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="75">
       <c r="A39" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="14">
-        <v>23.16</v>
+        <v>49.65</v>
       </c>
       <c r="E39" s="15">
         <v>42556</v>
       </c>
       <c r="F39" s="14">
-        <v>18.46</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="0"/>
-        <v>0.20293609671848012</v>
+        <v>0.19617321248741193</v>
       </c>
       <c r="I39" s="2">
-        <v>19.52</v>
-      </c>
-      <c r="J39" s="27">
+        <v>44.2</v>
+      </c>
+      <c r="J39" s="28">
         <f t="shared" si="1"/>
-        <v>0.22553191489361679</v>
+        <v>0.44045174537987736</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -3714,7 +3767,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>0.87623530534749627</v>
+        <v>0.39511221044795958</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3723,39 +3776,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="75">
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="90">
       <c r="A40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="C40" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="14">
-        <v>49.65</v>
+        <v>37.5</v>
       </c>
       <c r="E40" s="15">
         <v>42556</v>
       </c>
       <c r="F40" s="14">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>166</v>
-      </c>
+        <v>30.94</v>
+      </c>
+      <c r="G40" s="16"/>
       <c r="H40" s="5">
         <f t="shared" si="0"/>
-        <v>0.19617321248741193</v>
+        <v>0.1749333333333333</v>
       </c>
       <c r="I40" s="2">
-        <v>43.67</v>
-      </c>
-      <c r="J40" s="28">
+        <v>31.92</v>
+      </c>
+      <c r="J40" s="27">
         <f t="shared" si="1"/>
-        <v>0.38603696098562673</v>
+        <v>0.14939024390243913</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3768,7 +3820,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>0.39511221044795958</v>
+        <v>0.46648888888888879</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3777,50 +3829,53 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="90">
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" ht="60">
       <c r="A41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D41" s="14">
-        <v>37.5</v>
+        <v>31.83</v>
       </c>
       <c r="E41" s="15">
-        <v>42556</v>
+        <v>42565</v>
       </c>
       <c r="F41" s="14">
-        <v>30.94</v>
-      </c>
-      <c r="G41" s="16"/>
+        <v>25.6</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="H41" s="5">
         <f t="shared" si="0"/>
-        <v>0.1749333333333333</v>
+        <v>0.1957273012880929</v>
       </c>
       <c r="I41" s="2">
-        <v>31.95</v>
+        <v>26.98</v>
       </c>
       <c r="J41" s="27">
         <f t="shared" si="1"/>
-        <v>0.15396341463414606</v>
+        <v>0.22150882825040125</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>0.46648888888888879</v>
+        <v>0.6149145500725508</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3829,52 +3884,51 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="60">
-      <c r="A42" s="11" t="s">
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" ht="75">
+      <c r="A42" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="14">
-        <v>31.83</v>
-      </c>
-      <c r="E42" s="15">
-        <v>42565</v>
-      </c>
-      <c r="F42" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="D42" s="20">
+        <v>26.26</v>
+      </c>
+      <c r="E42" s="21">
+        <v>42564</v>
+      </c>
+      <c r="F42" s="20">
+        <v>21.16</v>
+      </c>
+      <c r="G42" s="22"/>
       <c r="H42" s="5">
         <f t="shared" si="0"/>
-        <v>0.1957273012880929</v>
+        <v>0.19421172886519425</v>
       </c>
       <c r="I42" s="2">
-        <v>27.14</v>
-      </c>
-      <c r="J42" s="27">
-        <f t="shared" si="1"/>
-        <v>0.24719101123595505</v>
+        <v>23.33</v>
+      </c>
+      <c r="J42" s="28">
+        <f>(I42-F42)/(D42-F42)</f>
+        <v>0.42549019607843092</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>0.6149145500725508</v>
+        <v>0.73957246330995519</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3883,61 +3937,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="75">
-      <c r="A43" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="20">
-        <v>26.26</v>
-      </c>
-      <c r="E43" s="21">
-        <v>42564</v>
-      </c>
-      <c r="F43" s="20">
-        <v>21.16</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19421172886519425</v>
-      </c>
-      <c r="I43" s="2">
-        <v>23.42</v>
-      </c>
-      <c r="J43" s="28">
-        <f>(I43-F43)/(D43-F43)</f>
-        <v>0.44313725490196099</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
-        <v>5</v>
-      </c>
-      <c r="M43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="2"/>
-        <v>0.73957246330995519</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="R42" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J43"/>
+  <autoFilter ref="J1:J42"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/Stocks Info.xlsx
+++ b/Stocks Info.xlsx
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1694,12 +1694,12 @@
         <f>(D2-F2)/D2</f>
         <v>0.4904789494013132</v>
       </c>
-      <c r="I2" s="2">
-        <v>3113.22</v>
+      <c r="I2">
+        <v>3104.27</v>
       </c>
       <c r="J2" s="27">
         <f>(I2-F2)/(D2-F2)</f>
-        <v>0.1869984643855572</v>
+        <v>0.1834744261133204</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>125</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="Q2" s="2">
         <f>SUM(Q3:Q42)</f>
-        <v>7137</v>
+        <v>7133</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2">
@@ -1744,7 +1744,7 @@
         <f>(D3-F3)/D3</f>
         <v>0.32659932659932667</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>4.4400000000000004</v>
       </c>
       <c r="J3" s="27">
@@ -1802,12 +1802,12 @@
         <f t="shared" ref="H4:H42" si="0">(D4-F4)/D4</f>
         <v>6.6869300911854168E-2</v>
       </c>
-      <c r="I4" s="2">
-        <v>3.16</v>
+      <c r="I4">
+        <v>3.17</v>
       </c>
       <c r="J4" s="28">
         <f t="shared" ref="J4:J41" si="1">(I4-F4)/(D4-F4)</f>
-        <v>0.40909090909091012</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1857,12 +1857,12 @@
         <f t="shared" si="0"/>
         <v>7.9999999999999974E-2</v>
       </c>
-      <c r="I5" s="2">
-        <v>17.88</v>
+      <c r="I5">
+        <v>17.899999999999999</v>
       </c>
       <c r="J5" s="27">
         <f t="shared" si="1"/>
-        <v>0.26315789473684126</v>
+        <v>0.27631578947368307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <f t="shared" si="0"/>
         <v>9.1210613598673274E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>5.65</v>
       </c>
       <c r="J6" s="28">
@@ -1967,12 +1967,12 @@
         <f t="shared" si="0"/>
         <v>7.5812274368231028E-2</v>
       </c>
-      <c r="I7" s="2">
-        <v>5.28</v>
+      <c r="I7">
+        <v>5.26</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" si="1"/>
-        <v>0.38095238095238138</v>
+        <v>0.33333333333333265</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -2022,12 +2022,12 @@
         <f t="shared" si="0"/>
         <v>0.21029082774049229</v>
       </c>
-      <c r="I8" s="2">
-        <v>20.34</v>
+      <c r="I8">
+        <v>20.04</v>
       </c>
       <c r="J8" s="28">
         <f t="shared" si="1"/>
-        <v>0.57234042553191478</v>
+        <v>0.50851063829787213</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -2077,12 +2077,12 @@
         <f t="shared" si="0"/>
         <v>0.12525150905432589</v>
       </c>
-      <c r="I9" s="2">
-        <v>17.96</v>
+      <c r="I9">
+        <v>17.920000000000002</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="1"/>
-        <v>0.22891566265060267</v>
+        <v>0.21285140562249055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="3"/>
-        <v>1796</v>
+        <v>1792.0000000000002</v>
       </c>
       <c r="R9" s="2">
         <v>18.02</v>
@@ -2138,12 +2138,12 @@
         <f t="shared" si="0"/>
         <v>0.12310902451747537</v>
       </c>
-      <c r="I10" s="2">
-        <v>18.3</v>
+      <c r="I10">
+        <v>18.190000000000001</v>
       </c>
       <c r="J10" s="28">
         <f t="shared" si="1"/>
-        <v>0.63135593220338992</v>
+        <v>0.58474576271186474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -2193,12 +2193,12 @@
         <f t="shared" si="0"/>
         <v>0.15417106652587126</v>
       </c>
-      <c r="I11" s="2">
-        <v>17.07</v>
+      <c r="I11">
+        <v>16.95</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="1"/>
-        <v>0.35958904109589046</v>
+        <v>0.31849315068493123</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -2248,12 +2248,12 @@
         <f t="shared" si="0"/>
         <v>0.15064102564102558</v>
       </c>
-      <c r="I12" s="2">
-        <v>16.91</v>
+      <c r="I12">
+        <v>16.809999999999999</v>
       </c>
       <c r="J12" s="28">
         <f>(I12-F12)/(D12-F12)</f>
-        <v>0.35815602836879445</v>
+        <v>0.32269503546099249</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2303,12 +2303,12 @@
         <f t="shared" si="0"/>
         <v>0.18533236994219648</v>
       </c>
-      <c r="I13" s="2">
-        <v>24.64</v>
+      <c r="I13">
+        <v>24.75</v>
       </c>
       <c r="J13" s="28">
         <f t="shared" si="1"/>
-        <v>0.40740740740740744</v>
+        <v>0.42884990253411298</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <f t="shared" si="0"/>
         <v>0.16188714153561518</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>9.17</v>
       </c>
       <c r="J14" s="27">
@@ -2422,12 +2422,12 @@
         <f t="shared" si="0"/>
         <v>0.12913117546848391</v>
       </c>
-      <c r="I15" s="2">
-        <v>27.52</v>
+      <c r="I15">
+        <v>27.32</v>
       </c>
       <c r="J15" s="28">
         <f t="shared" si="1"/>
-        <v>0.51715039577836397</v>
+        <v>0.46437994722955156</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2477,12 +2477,12 @@
         <f t="shared" si="0"/>
         <v>0.11643835616438351</v>
       </c>
-      <c r="I16" s="2">
-        <v>16.88</v>
+      <c r="I16">
+        <v>16.79</v>
       </c>
       <c r="J16" s="28">
         <f t="shared" si="1"/>
-        <v>0.68627450980392113</v>
+        <v>0.64215686274509765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2532,12 +2532,12 @@
         <f t="shared" si="0"/>
         <v>0.15077319587628865</v>
       </c>
-      <c r="I17" s="2">
-        <v>7.01</v>
+      <c r="I17">
+        <v>6.95</v>
       </c>
       <c r="J17" s="28">
         <f t="shared" si="1"/>
-        <v>0.35897435897435892</v>
+        <v>0.30769230769230799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2587,12 +2587,12 @@
         <f t="shared" si="0"/>
         <v>0.12634309003334571</v>
       </c>
-      <c r="I18" s="2">
-        <v>24.83</v>
+      <c r="I18">
+        <v>24.91</v>
       </c>
       <c r="J18" s="28">
         <f t="shared" si="1"/>
-        <v>0.36656891495601174</v>
+        <v>0.39002932551319702</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2642,12 +2642,12 @@
         <f t="shared" si="0"/>
         <v>0.20406976744186045</v>
       </c>
-      <c r="I19" s="2">
-        <v>14.17</v>
+      <c r="I19">
+        <v>14.23</v>
       </c>
       <c r="J19" s="27">
         <f t="shared" si="1"/>
-        <v>0.13675213675213688</v>
+        <v>0.15384615384615413</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2697,12 +2697,12 @@
         <f t="shared" si="0"/>
         <v>7.5941289087428171E-2</v>
       </c>
-      <c r="I20" s="2">
-        <v>15.55</v>
+      <c r="I20">
+        <v>15.48</v>
       </c>
       <c r="J20" s="29">
         <f t="shared" si="1"/>
-        <v>0.8991596638655468</v>
+        <v>0.84033613445378186</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2750,12 +2750,12 @@
         <f t="shared" si="0"/>
         <v>6.8994889267461709E-2</v>
       </c>
-      <c r="I21" s="2">
-        <v>22.39</v>
-      </c>
-      <c r="J21" s="28">
+      <c r="I21">
+        <v>22.3</v>
+      </c>
+      <c r="J21" s="27">
         <f t="shared" si="1"/>
-        <v>0.327160493827161</v>
+        <v>0.27160493827160553</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2805,12 +2805,12 @@
         <f t="shared" si="0"/>
         <v>8.3601286173633452E-2</v>
       </c>
-      <c r="I22" s="2">
-        <v>21.3</v>
-      </c>
-      <c r="J22" s="28">
+      <c r="I22">
+        <v>21.55</v>
+      </c>
+      <c r="J22" s="29">
         <f t="shared" si="1"/>
-        <v>0.74175824175824245</v>
+        <v>0.87912087912087977</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2860,12 +2860,12 @@
         <f t="shared" si="0"/>
         <v>0.17871006270528525</v>
       </c>
-      <c r="I23" s="2">
-        <v>59.66</v>
+      <c r="I23">
+        <v>59.24</v>
       </c>
       <c r="J23" s="28">
         <f t="shared" si="1"/>
-        <v>0.38847117794486186</v>
+        <v>0.35338345864661669</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2915,12 +2915,12 @@
         <f t="shared" si="0"/>
         <v>0.10736975857687417</v>
       </c>
-      <c r="I24" s="2">
-        <v>30.14</v>
+      <c r="I24">
+        <v>29.91</v>
       </c>
       <c r="J24" s="28">
         <f t="shared" si="1"/>
-        <v>0.60355029585798814</v>
+        <v>0.53550295857988139</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2970,12 +2970,12 @@
         <f t="shared" si="0"/>
         <v>0.19262917933130699</v>
       </c>
-      <c r="I25" s="2">
-        <v>22.7</v>
-      </c>
-      <c r="J25" s="27">
+      <c r="I25">
+        <v>22.92</v>
+      </c>
+      <c r="J25" s="28">
         <f t="shared" si="1"/>
-        <v>0.28599605522682431</v>
+        <v>0.32938856015779122</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3025,12 +3025,12 @@
         <f t="shared" si="0"/>
         <v>0.27370304114490168</v>
       </c>
-      <c r="I26" s="2">
-        <v>5.15</v>
+      <c r="I26">
+        <v>5.13</v>
       </c>
       <c r="J26" s="29">
         <f t="shared" si="1"/>
-        <v>0.71241830065359513</v>
+        <v>0.69934640522875824</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -3080,12 +3080,12 @@
         <f t="shared" si="0"/>
         <v>0.1006036217303823</v>
       </c>
-      <c r="I27" s="2">
-        <v>9.5399999999999991</v>
+      <c r="I27">
+        <v>9.41</v>
       </c>
       <c r="J27" s="28">
         <f t="shared" si="1"/>
-        <v>0.59999999999999964</v>
+        <v>0.47000000000000064</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3135,12 +3135,12 @@
         <f t="shared" si="0"/>
         <v>0.16915995397008055</v>
       </c>
-      <c r="I28" s="2">
-        <v>7.4</v>
+      <c r="I28">
+        <v>7.36</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" si="1"/>
-        <v>0.12244897959183716</v>
+        <v>9.5238095238095635E-2</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3190,7 +3190,7 @@
         <f t="shared" si="0"/>
         <v>0.23880597014925381</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>5.18</v>
       </c>
       <c r="J29" s="27">
@@ -3254,12 +3254,12 @@
         <f t="shared" si="0"/>
         <v>0.21885521885521886</v>
       </c>
-      <c r="I30" s="2">
-        <v>7.12</v>
+      <c r="I30">
+        <v>7.09</v>
       </c>
       <c r="J30" s="27">
         <f t="shared" si="1"/>
-        <v>8.2051282051282121E-2</v>
+        <v>6.666666666666661E-2</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3309,12 +3309,12 @@
         <f t="shared" si="0"/>
         <v>9.4890510948905188E-2</v>
       </c>
-      <c r="I31" s="2">
-        <v>5.27</v>
+      <c r="I31">
+        <v>5.23</v>
       </c>
       <c r="J31" s="28">
         <f t="shared" si="1"/>
-        <v>0.59615384615384492</v>
+        <v>0.51923076923076961</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3364,7 +3364,7 @@
         <f t="shared" si="0"/>
         <v>4.7745358090185722E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>7.38</v>
       </c>
       <c r="J32" s="28">
@@ -3419,12 +3419,12 @@
         <f t="shared" si="0"/>
         <v>0.25761124121779855</v>
       </c>
-      <c r="I33" s="2">
-        <v>16.510000000000002</v>
+      <c r="I33">
+        <v>16.48</v>
       </c>
       <c r="J33" s="29">
         <f t="shared" si="1"/>
-        <v>0.87045454545454615</v>
+        <v>0.86363636363636409</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -3474,7 +3474,7 @@
         <f t="shared" si="0"/>
         <v>7.3929961089494151E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>5.01</v>
       </c>
       <c r="J34" s="28">
@@ -3529,12 +3529,12 @@
         <f t="shared" si="0"/>
         <v>0.10814249363867691</v>
       </c>
-      <c r="I35" s="2">
-        <v>7.18</v>
+      <c r="I35">
+        <v>7.17</v>
       </c>
       <c r="J35" s="27">
         <f t="shared" si="1"/>
-        <v>0.19999999999999979</v>
+        <v>0.18823529411764711</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3584,7 +3584,7 @@
         <f t="shared" si="0"/>
         <v>4.8387096774193519E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
         <v>3.02</v>
       </c>
       <c r="J36" s="28">
@@ -3639,12 +3639,12 @@
         <f t="shared" si="0"/>
         <v>8.9903181189488285E-2</v>
       </c>
-      <c r="I37" s="2">
-        <v>6.84</v>
+      <c r="I37">
+        <v>6.8</v>
       </c>
       <c r="J37" s="28">
         <f t="shared" si="1"/>
-        <v>0.39999999999999947</v>
+        <v>0.33846153846153787</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3694,12 +3694,12 @@
         <f t="shared" si="0"/>
         <v>0.20293609671848012</v>
       </c>
-      <c r="I38" s="2">
-        <v>19.48</v>
+      <c r="I38">
+        <v>19.309999999999999</v>
       </c>
       <c r="J38" s="27">
         <f t="shared" si="1"/>
-        <v>0.21702127659574463</v>
+        <v>0.1808510638297868</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3749,12 +3749,12 @@
         <f t="shared" si="0"/>
         <v>0.19617321248741193</v>
       </c>
-      <c r="I39" s="2">
-        <v>44.2</v>
+      <c r="I39">
+        <v>43.34</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="1"/>
-        <v>0.44045174537987736</v>
+        <v>0.35215605749486717</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -3802,12 +3802,12 @@
         <f t="shared" si="0"/>
         <v>0.1749333333333333</v>
       </c>
-      <c r="I40" s="2">
-        <v>31.92</v>
+      <c r="I40">
+        <v>31.69</v>
       </c>
       <c r="J40" s="27">
         <f t="shared" si="1"/>
-        <v>0.14939024390243913</v>
+        <v>0.11432926829268295</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3857,12 +3857,12 @@
         <f t="shared" si="0"/>
         <v>0.1957273012880929</v>
       </c>
-      <c r="I41" s="2">
-        <v>26.98</v>
+      <c r="I41">
+        <v>26.87</v>
       </c>
       <c r="J41" s="27">
         <f t="shared" si="1"/>
-        <v>0.22150882825040125</v>
+        <v>0.2038523274478331</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -3910,12 +3910,12 @@
         <f t="shared" si="0"/>
         <v>0.19421172886519425</v>
       </c>
-      <c r="I42" s="2">
-        <v>23.33</v>
+      <c r="I42">
+        <v>23.24</v>
       </c>
       <c r="J42" s="28">
         <f>(I42-F42)/(D42-F42)</f>
-        <v>0.42549019607843092</v>
+        <v>0.40784313725490151</v>
       </c>
       <c r="K42">
         <v>3</v>
